--- a/고려대학교 근처 식당.xlsx
+++ b/고려대학교 근처 식당.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bomi1\OneDrive\1학년\2학기\컴퓨터 프로그래밍2\과제\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9aa600df389490cd/문서/GitHub/programming_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="701" documentId="8_{C437E4E4-EF33-454A-AC54-8B9257FF0E73}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{4DC21E3B-352B-4B47-B87A-2ADFC8D780C4}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="14_{292588D8-9894-4DF9-BD7E-7438912589EF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{F6313261-1C30-4ADF-AF5B-D3DE9080E5C3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{8DD617F7-1EDE-4DC4-B77C-B483E6991320}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="274">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,10 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다손김밥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>미스터피자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,10 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>더냄비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이삭토스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -604,10 +596,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>꼬이치킨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한솥도시락</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -744,10 +732,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>골목국수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>짚신매운갈비찜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -844,10 +828,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나주곰탕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프로마치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -900,10 +880,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>더멜팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>24시간짜장마을</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -940,10 +916,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>넘버85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이모네얼큰이식당</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1134,6 +1106,10 @@
   </si>
   <si>
     <t>일식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1520,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD94CB88-F71D-42CB-A19D-74443860C856}">
   <dimension ref="A1:F238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1544,13 +1520,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -1558,783 +1534,847 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
         <v>238</v>
       </c>
-      <c r="C2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D2" t="s">
-        <v>245</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F6" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F8" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F9" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F10" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B11" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F11" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D12" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F12" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F14" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F15" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+        <v>234</v>
+      </c>
+      <c r="F17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D18" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>177</v>
-      </c>
-      <c r="B19" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+        <v>263</v>
+      </c>
+      <c r="F18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+      <c r="F20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+      <c r="F21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+        <v>233</v>
+      </c>
+      <c r="F22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>49</v>
       </c>
       <c r="B23" t="s">
+        <v>231</v>
+      </c>
+      <c r="F23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" t="s">
+        <v>233</v>
+      </c>
+      <c r="F24" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" t="s">
+        <v>231</v>
+      </c>
+      <c r="F25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F26" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" t="s">
+        <v>232</v>
+      </c>
+      <c r="D28" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B24" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>170</v>
-      </c>
-      <c r="B25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" t="s">
-        <v>240</v>
-      </c>
-      <c r="D26" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="F28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" t="s">
+        <v>231</v>
+      </c>
+      <c r="F29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" t="s">
+        <v>233</v>
+      </c>
+      <c r="F31" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>174</v>
-      </c>
-      <c r="B28" t="s">
-        <v>239</v>
-      </c>
-      <c r="D28" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>181</v>
-      </c>
-      <c r="B29" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>202</v>
-      </c>
-      <c r="B30" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>223</v>
-      </c>
-      <c r="B31" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>163</v>
-      </c>
-      <c r="B32" t="s">
-        <v>238</v>
-      </c>
-      <c r="D32" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>226</v>
-      </c>
-      <c r="B33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F32" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B34" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+        <v>232</v>
+      </c>
+      <c r="F34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+      <c r="F35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
+        <v>232</v>
+      </c>
+      <c r="D36" t="s">
         <v>239</v>
       </c>
-      <c r="D36" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B37" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+        <v>233</v>
+      </c>
+      <c r="F37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+      <c r="F39" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C40" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D40" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+        <v>252</v>
+      </c>
+      <c r="F40" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>45</v>
       </c>
       <c r="B41" t="s">
+        <v>232</v>
+      </c>
+      <c r="D41" t="s">
         <v>239</v>
       </c>
-      <c r="D41" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B42" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+        <v>231</v>
+      </c>
+      <c r="F42" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
         <v>75</v>
       </c>
-      <c r="B43" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>216</v>
-      </c>
-      <c r="B44" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>77</v>
-      </c>
       <c r="B45" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+      <c r="F46" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C47" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D47" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+        <v>265</v>
+      </c>
+      <c r="F47" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B48" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>18</v>
       </c>
       <c r="B49" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" t="s">
+        <v>247</v>
+      </c>
+      <c r="D49" t="s">
+        <v>238</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F49" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>234</v>
+      </c>
+      <c r="F50" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" t="s">
+        <v>233</v>
+      </c>
+      <c r="D51" t="s">
         <v>239</v>
       </c>
-      <c r="C49" t="s">
-        <v>254</v>
-      </c>
-      <c r="D49" t="s">
-        <v>245</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" t="s">
-        <v>240</v>
-      </c>
-      <c r="D51" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>5</v>
       </c>
       <c r="B52" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52" t="s">
+        <v>244</v>
+      </c>
+      <c r="D52" t="s">
         <v>238</v>
       </c>
-      <c r="C52" t="s">
-        <v>251</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F52" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B53" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+        <v>233</v>
+      </c>
+      <c r="F53" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" t="s">
+        <v>231</v>
+      </c>
+      <c r="D55" t="s">
+        <v>238</v>
+      </c>
+      <c r="F55" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" t="s">
+        <v>233</v>
+      </c>
+      <c r="D56" t="s">
+        <v>238</v>
+      </c>
+      <c r="F56" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57" t="s">
+        <v>233</v>
+      </c>
+      <c r="F57" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" t="s">
+        <v>235</v>
+      </c>
+      <c r="F59" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" t="s">
+        <v>232</v>
+      </c>
+      <c r="F60" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
         <v>102</v>
       </c>
-      <c r="B54" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>132</v>
-      </c>
-      <c r="B55" t="s">
-        <v>238</v>
-      </c>
-      <c r="D55" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>125</v>
-      </c>
-      <c r="B56" t="s">
-        <v>240</v>
-      </c>
-      <c r="D56" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>192</v>
-      </c>
-      <c r="B57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>148</v>
-      </c>
-      <c r="B58" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>136</v>
-      </c>
-      <c r="B59" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>81</v>
-      </c>
-      <c r="B60" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>104</v>
-      </c>
       <c r="B61" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+        <v>233</v>
+      </c>
+      <c r="F61" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C62" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D62" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+        <v>261</v>
+      </c>
+      <c r="F62" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B63" t="s">
+        <v>232</v>
+      </c>
+      <c r="F63" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>181</v>
+      </c>
+      <c r="B64" t="s">
+        <v>232</v>
+      </c>
+      <c r="F64" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>205</v>
+      </c>
+      <c r="B65" t="s">
+        <v>234</v>
+      </c>
+      <c r="D65" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>185</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="F65" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>233</v>
+      </c>
+      <c r="F66" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>175</v>
+      </c>
+      <c r="B67" t="s">
+        <v>232</v>
+      </c>
+      <c r="F67" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" t="s">
+        <v>232</v>
+      </c>
+      <c r="D68" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>210</v>
-      </c>
-      <c r="B65" t="s">
-        <v>241</v>
-      </c>
-      <c r="D65" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
+      <c r="F68" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" t="s">
+        <v>232</v>
+      </c>
+      <c r="D69" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" t="s">
+        <v>232</v>
+      </c>
+      <c r="D70" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" t="s">
+        <v>234</v>
+      </c>
+      <c r="D71" t="s">
+        <v>238</v>
+      </c>
+      <c r="F71" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
         <v>179</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B73" t="s">
+        <v>232</v>
+      </c>
+      <c r="D73" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>150</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" t="s">
+        <v>232</v>
+      </c>
+      <c r="D76" t="s">
         <v>239</v>
       </c>
-      <c r="D68" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>109</v>
-      </c>
-      <c r="B69" t="s">
-        <v>239</v>
-      </c>
-      <c r="D69" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>118</v>
-      </c>
-      <c r="B70" t="s">
-        <v>239</v>
-      </c>
-      <c r="D70" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>133</v>
-      </c>
-      <c r="B71" t="s">
-        <v>241</v>
-      </c>
-      <c r="D71" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>66</v>
-      </c>
-      <c r="B72" t="s">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" t="s">
+        <v>231</v>
+      </c>
+      <c r="D77" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>183</v>
-      </c>
-      <c r="B73" t="s">
-        <v>239</v>
-      </c>
-      <c r="D73" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>111</v>
-      </c>
-      <c r="B74" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>147</v>
-      </c>
-      <c r="B75" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>184</v>
-      </c>
-      <c r="B76" t="s">
-        <v>239</v>
-      </c>
-      <c r="D76" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>108</v>
-      </c>
-      <c r="B77" t="s">
-        <v>238</v>
-      </c>
-      <c r="D77" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B78" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B80" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B81" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
@@ -2342,18 +2382,18 @@
         <v>46</v>
       </c>
       <c r="B82" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D82" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B83" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
@@ -2361,24 +2401,24 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C84" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D84" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B85" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
@@ -2386,29 +2426,29 @@
         <v>23</v>
       </c>
       <c r="B86" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C86" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D86" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B87" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B88" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
@@ -2416,140 +2456,140 @@
         <v>24</v>
       </c>
       <c r="B89" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C89" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D89" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B90" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D90" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B91" t="s">
+        <v>232</v>
+      </c>
+      <c r="D91" t="s">
         <v>239</v>
-      </c>
-      <c r="D91" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B92" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B93" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B94" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B95" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B96" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D96" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B97" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B99" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B100" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B101" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D101" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B102" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.45">
@@ -2557,15 +2597,15 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B105" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
@@ -2573,16 +2613,16 @@
         <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C106" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D106" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
@@ -2590,73 +2630,73 @@
         <v>27</v>
       </c>
       <c r="B107" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C107" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D107" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B108" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B109" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B110" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D110" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B111" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B112" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D112" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B113" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D113" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
@@ -2664,59 +2704,59 @@
         <v>19</v>
       </c>
       <c r="B114" t="s">
+        <v>231</v>
+      </c>
+      <c r="C114" t="s">
+        <v>244</v>
+      </c>
+      <c r="D114" t="s">
         <v>238</v>
       </c>
-      <c r="C114" t="s">
-        <v>251</v>
-      </c>
-      <c r="D114" t="s">
-        <v>245</v>
-      </c>
       <c r="E114" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B115" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B116" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B117" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D117" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B118" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B119" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
@@ -2724,18 +2764,18 @@
         <v>13</v>
       </c>
       <c r="B120" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C120" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B121" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
@@ -2743,99 +2783,99 @@
         <v>36</v>
       </c>
       <c r="B122" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B123" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B124" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D124" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B125" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D125" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B126" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B127" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B128" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B130" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B131" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D131" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B132" t="s">
+        <v>232</v>
+      </c>
+      <c r="D132" t="s">
         <v>239</v>
-      </c>
-      <c r="D132" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
@@ -2843,21 +2883,21 @@
         <v>32</v>
       </c>
       <c r="B133" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D133" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B134" t="s">
+        <v>232</v>
+      </c>
+      <c r="D134" t="s">
         <v>239</v>
-      </c>
-      <c r="D134" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
@@ -2865,35 +2905,35 @@
         <v>7</v>
       </c>
       <c r="B135" t="s">
+        <v>231</v>
+      </c>
+      <c r="C135" t="s">
+        <v>247</v>
+      </c>
+      <c r="D135" t="s">
         <v>238</v>
       </c>
-      <c r="C135" t="s">
-        <v>254</v>
-      </c>
-      <c r="D135" t="s">
-        <v>245</v>
-      </c>
       <c r="E135" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B136" t="s">
+        <v>231</v>
+      </c>
+      <c r="D136" t="s">
         <v>238</v>
-      </c>
-      <c r="D136" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B137" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
@@ -2901,16 +2941,16 @@
         <v>16</v>
       </c>
       <c r="B138" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C138" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D138" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.45">
@@ -2918,59 +2958,59 @@
         <v>14</v>
       </c>
       <c r="B139" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C139" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D139" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B140" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B141" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B142" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D142" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B143" t="s">
+        <v>232</v>
+      </c>
+      <c r="D143" t="s">
         <v>239</v>
-      </c>
-      <c r="D143" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B144" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.45">
@@ -2978,35 +3018,35 @@
         <v>8</v>
       </c>
       <c r="B145" t="s">
+        <v>232</v>
+      </c>
+      <c r="C145" t="s">
+        <v>249</v>
+      </c>
+      <c r="D145" t="s">
         <v>239</v>
       </c>
-      <c r="C145" t="s">
-        <v>256</v>
-      </c>
-      <c r="D145" t="s">
-        <v>246</v>
-      </c>
       <c r="E145" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B146" t="s">
+        <v>231</v>
+      </c>
+      <c r="D146" t="s">
         <v>238</v>
-      </c>
-      <c r="D146" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B147" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.45">
@@ -3014,51 +3054,51 @@
         <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C148" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D148" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B149" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B150" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B151" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B152" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D152" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.45">
@@ -3066,53 +3106,53 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C153" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D153" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B155" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B156" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B157" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B158" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.45">
@@ -3120,10 +3160,10 @@
         <v>31</v>
       </c>
       <c r="B159" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D159" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.45">
@@ -3131,43 +3171,43 @@
         <v>29</v>
       </c>
       <c r="B160" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C160" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D160" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B161" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B162" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B163" t="s">
+        <v>232</v>
+      </c>
+      <c r="D163" t="s">
         <v>239</v>
-      </c>
-      <c r="D163" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.45">
@@ -3175,53 +3215,53 @@
         <v>25</v>
       </c>
       <c r="B164" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C164" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D164" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B165" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B166" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B167" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B168" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B169" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.45">
@@ -3229,15 +3269,15 @@
         <v>42</v>
       </c>
       <c r="B170" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B171" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.45">
@@ -3245,24 +3285,24 @@
         <v>9</v>
       </c>
       <c r="B172" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C172" t="s">
+        <v>244</v>
+      </c>
+      <c r="D172" t="s">
+        <v>238</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="D172" t="s">
-        <v>245</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B173" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.45">
@@ -3270,53 +3310,53 @@
         <v>17</v>
       </c>
       <c r="B174" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C174" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D174" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B175" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B176" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B177" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B178" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B179" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.45">
@@ -3324,31 +3364,31 @@
         <v>30</v>
       </c>
       <c r="B180" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B181" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B182" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B183" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.45">
@@ -3356,74 +3396,74 @@
         <v>47</v>
       </c>
       <c r="B184" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B185" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B186" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B187" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B188" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B189" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B190" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B191" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B192" t="s">
+        <v>233</v>
+      </c>
+      <c r="D192" t="s">
         <v>240</v>
-      </c>
-      <c r="D192" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.45">
@@ -3431,35 +3471,35 @@
         <v>12</v>
       </c>
       <c r="B193" t="s">
+        <v>231</v>
+      </c>
+      <c r="C193" t="s">
+        <v>244</v>
+      </c>
+      <c r="D193" t="s">
         <v>238</v>
       </c>
-      <c r="C193" t="s">
-        <v>251</v>
-      </c>
-      <c r="D193" t="s">
-        <v>245</v>
-      </c>
       <c r="E193" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B195" t="s">
+        <v>231</v>
+      </c>
+      <c r="D195" t="s">
         <v>238</v>
-      </c>
-      <c r="D195" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.45">
@@ -3467,67 +3507,67 @@
         <v>28</v>
       </c>
       <c r="B196" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C196" t="s">
+        <v>260</v>
+      </c>
+      <c r="D196" t="s">
+        <v>239</v>
+      </c>
+      <c r="E196" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="D196" t="s">
-        <v>246</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B197" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B198" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B199" t="s">
+        <v>232</v>
+      </c>
+      <c r="D199" t="s">
         <v>239</v>
-      </c>
-      <c r="D199" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B200" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B201" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B202" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.45">
@@ -3535,10 +3575,10 @@
         <v>33</v>
       </c>
       <c r="B203" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D203" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.45">
@@ -3546,18 +3586,18 @@
         <v>44</v>
       </c>
       <c r="B204" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D204" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B205" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.45">
@@ -3565,26 +3605,26 @@
         <v>35</v>
       </c>
       <c r="B206" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B207" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D207" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B208" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.45">
@@ -3592,29 +3632,29 @@
         <v>10</v>
       </c>
       <c r="B209" t="s">
+        <v>231</v>
+      </c>
+      <c r="C209" t="s">
+        <v>247</v>
+      </c>
+      <c r="D209" t="s">
         <v>238</v>
-      </c>
-      <c r="C209" t="s">
-        <v>254</v>
-      </c>
-      <c r="D209" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B210" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B211" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.45">
@@ -3622,7 +3662,7 @@
         <v>34</v>
       </c>
       <c r="B212" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.45">
@@ -3630,23 +3670,23 @@
         <v>43</v>
       </c>
       <c r="B213" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B214" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B215" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.45">
@@ -3654,91 +3694,91 @@
         <v>4</v>
       </c>
       <c r="B216" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C216" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B217" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B218" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B219" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B220" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B221" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B222" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B223" t="s">
+        <v>231</v>
+      </c>
+      <c r="D223" t="s">
         <v>238</v>
-      </c>
-      <c r="D223" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B224" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B225" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D225" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.45">
@@ -3746,39 +3786,39 @@
         <v>39</v>
       </c>
       <c r="B226" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B227" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B228" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B229" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B230" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.45">
@@ -3786,58 +3826,58 @@
         <v>41</v>
       </c>
       <c r="B231" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D231" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B232" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B233" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B234" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B235" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B236" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B237" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.45">
@@ -3845,7 +3885,7 @@
         <v>40</v>
       </c>
       <c r="B238" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
